--- a/html/score.xlsx
+++ b/html/score.xlsx
@@ -1,52 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smutou\docker-php-excel\html\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB74FAB0-A20E-4508-9F89-94EC95EF67DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29400" yWindow="-2748" windowWidth="18312" windowHeight="13644" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="COMPANY">'Worksheet'!$B$7</definedName>
+    <definedName name="INQUIRY">'Worksheet'!$C$14</definedName>
+    <definedName name="NAME">'Worksheet'!$E$9</definedName>
+  </definedNames>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>worktest</t>
-    <phoneticPr fontId="1"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+  <si>
+    <t>会社名</t>
+  </si>
+  <si>
+    <t>nssx</t>
+  </si>
+  <si>
+    <t>名前</t>
+  </si>
+  <si>
+    <t>問い合わせ</t>
+  </si>
+  <si>
+    <t>ありがとうございます。</t>
+  </si>
+  <si>
+    <t>武藤晃太</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="ＭＳ Ｐゴシック"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,22 +85,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -375,29 +382,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="7" spans="1:6">
+      <c r="B7" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>123456789</v>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="E9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/html/score.xlsx
+++ b/html/score.xlsx
@@ -24,19 +24,19 @@
     <t>会社名</t>
   </si>
   <si>
-    <t>nssx</t>
+    <t>尾崎</t>
   </si>
   <si>
     <t>名前</t>
   </si>
   <si>
+    <t>尾崎豊</t>
+  </si>
+  <si>
     <t>問い合わせ</t>
   </si>
   <si>
-    <t>ありがとうございます。</t>
-  </si>
-  <si>
-    <t>武藤晃太</t>
+    <t>尾崎です</t>
   </si>
 </sst>
 </file>
@@ -410,15 +410,15 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="C14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/html/score.xlsx
+++ b/html/score.xlsx
@@ -24,19 +24,19 @@
     <t>会社名</t>
   </si>
   <si>
-    <t>尾崎</t>
+    <t>nssx</t>
   </si>
   <si>
     <t>名前</t>
   </si>
   <si>
-    <t>尾崎豊</t>
+    <t>武藤晃太</t>
   </si>
   <si>
     <t>問い合わせ</t>
   </si>
   <si>
-    <t>尾崎です</t>
+    <t>こんにちわ</t>
   </si>
 </sst>
 </file>

--- a/html/score.xlsx
+++ b/html/score.xlsx
@@ -1,67 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smutou\docker-php-excel\html\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476E8EA8-5228-458F-AA10-D27A273EFA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="COMPANY">'Worksheet'!$B$7</definedName>
-    <definedName name="INQUIRY">'Worksheet'!$C$14</definedName>
-    <definedName name="NAME">'Worksheet'!$E$9</definedName>
+    <definedName name="INQUIRY">Worksheet!$A$3</definedName>
+    <definedName name="NAME">Worksheet!$A$1</definedName>
+    <definedName name="TELEPHONE">Worksheet!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>会社名</t>
-  </si>
-  <si>
-    <t>nssx</t>
+    <t>電話番号</t>
   </si>
   <si>
     <t>名前</t>
   </si>
   <si>
-    <t>武藤晃太</t>
-  </si>
-  <si>
     <t>問い合わせ</t>
-  </si>
-  <si>
-    <t>こんにちわ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,15 +87,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -382,57 +394,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="10.36328125" customWidth="true" style="0"/>
+    <col min="5" max="5" width="10.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:6">
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="E9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>3</v>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/html/score.xlsx
+++ b/html/score.xlsx
@@ -1,70 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smutou\docker-php-excel\html\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476E8EA8-5228-458F-AA10-D27A273EFA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="INQUIRY">Worksheet!$A$3</definedName>
-    <definedName name="NAME">Worksheet!$A$1</definedName>
-    <definedName name="TELEPHONE">Worksheet!$A$2</definedName>
+    <definedName name="INQUIRY">'Worksheet'!$A$3</definedName>
+    <definedName name="NAME">'Worksheet'!$A$1</definedName>
+    <definedName name="TELEPHONE">'Worksheet'!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+  <si>
+    <t>名前</t>
+  </si>
+  <si>
+    <t>武藤晃太</t>
+  </si>
   <si>
     <t>電話番号</t>
   </si>
   <si>
-    <t>名前</t>
+    <t>08011112222</t>
   </si>
   <si>
     <t>問い合わせ</t>
+  </si>
+  <si>
+    <t>こんにちわ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,23 +94,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -394,36 +392,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="5" max="5" width="10.36328125" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>